--- a/data/raw/election/voters-age-sex-education/2023/Tunceli.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Tunceli.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:03:28-38747811917" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="37">
   <si>
     <t>Tunceli</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Tunceli Merkez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -678,10 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,10 +1020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,20 +1043,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,8 +2090,8 @@
       <c r="D30" s="5">
         <v>242</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.5780000000000001</v>
+      <c r="E30" s="7">
+        <v>1578</v>
       </c>
       <c r="F30" s="5">
         <v>496</v>
@@ -2085,8 +2099,8 @@
       <c r="G30" s="5">
         <v>672</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.637</v>
+      <c r="H30" s="7">
+        <v>1637</v>
       </c>
       <c r="I30" s="5">
         <v>849</v>
@@ -2100,8 +2114,8 @@
       <c r="L30" s="5">
         <v>21</v>
       </c>
-      <c r="M30" s="5">
-        <v>5.8010000000000002</v>
+      <c r="M30" s="7">
+        <v>5801</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3123,8 +3137,8 @@
       <c r="G56" s="5">
         <v>504</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.3260000000000001</v>
+      <c r="H56" s="7">
+        <v>1326</v>
       </c>
       <c r="I56" s="5">
         <v>782</v>
@@ -3138,8 +3152,8 @@
       <c r="L56" s="5">
         <v>66</v>
       </c>
-      <c r="M56" s="5">
-        <v>4.3600000000000003</v>
+      <c r="M56" s="7">
+        <v>4360</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4152,8 +4166,8 @@
       <c r="D82" s="5">
         <v>416</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.403</v>
+      <c r="E82" s="7">
+        <v>1403</v>
       </c>
       <c r="F82" s="5">
         <v>518</v>
@@ -4161,8 +4175,8 @@
       <c r="G82" s="5">
         <v>834</v>
       </c>
-      <c r="H82" s="5">
-        <v>1.643</v>
+      <c r="H82" s="7">
+        <v>1643</v>
       </c>
       <c r="I82" s="5">
         <v>754</v>
@@ -4176,8 +4190,8 @@
       <c r="L82" s="5">
         <v>130</v>
       </c>
-      <c r="M82" s="5">
-        <v>6.3550000000000004</v>
+      <c r="M82" s="7">
+        <v>6355</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5214,8 +5228,8 @@
       <c r="L108" s="5">
         <v>60</v>
       </c>
-      <c r="M108" s="5">
-        <v>2.669</v>
+      <c r="M108" s="7">
+        <v>2669</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6228,8 +6242,8 @@
       <c r="D134" s="5">
         <v>301</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.202</v>
+      <c r="E134" s="7">
+        <v>1202</v>
       </c>
       <c r="F134" s="5">
         <v>403</v>
@@ -6237,8 +6251,8 @@
       <c r="G134" s="5">
         <v>655</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.552</v>
+      <c r="H134" s="7">
+        <v>1552</v>
       </c>
       <c r="I134" s="5">
         <v>918</v>
@@ -6252,8 +6266,8 @@
       <c r="L134" s="5">
         <v>115</v>
       </c>
-      <c r="M134" s="5">
-        <v>5.5910000000000002</v>
+      <c r="M134" s="7">
+        <v>5591</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7266,20 +7280,20 @@
       <c r="D160" s="5">
         <v>377</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.0550000000000002</v>
+      <c r="E160" s="7">
+        <v>2055</v>
       </c>
       <c r="F160" s="5">
         <v>734</v>
       </c>
-      <c r="G160" s="5">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.3149999999999999</v>
+      <c r="G160" s="7">
+        <v>1195</v>
+      </c>
+      <c r="H160" s="7">
+        <v>2320</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1315</v>
       </c>
       <c r="J160" s="5">
         <v>82</v>
@@ -7290,8 +7304,8 @@
       <c r="L160" s="5">
         <v>154</v>
       </c>
-      <c r="M160" s="5">
-        <v>8.7550000000000008</v>
+      <c r="M160" s="7">
+        <v>8755</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8328,8 +8342,8 @@
       <c r="L186" s="5">
         <v>90</v>
       </c>
-      <c r="M186" s="5">
-        <v>3.085</v>
+      <c r="M186" s="7">
+        <v>3085</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8408,8 +8422,8 @@
       <c r="L188" s="4">
         <v>4</v>
       </c>
-      <c r="M188" s="5">
-        <v>1.2889999999999999</v>
+      <c r="M188" s="7">
+        <v>1289</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8447,8 +8461,8 @@
       <c r="L189" s="4">
         <v>4</v>
       </c>
-      <c r="M189" s="5">
-        <v>1.2450000000000001</v>
+      <c r="M189" s="7">
+        <v>1245</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8488,8 +8502,8 @@
       <c r="L190" s="4">
         <v>7</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.91</v>
+      <c r="M190" s="7">
+        <v>1910</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8527,8 +8541,8 @@
       <c r="L191" s="4">
         <v>4</v>
       </c>
-      <c r="M191" s="5">
-        <v>1.607</v>
+      <c r="M191" s="7">
+        <v>1607</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8556,8 +8570,8 @@
       <c r="H192" s="4">
         <v>731</v>
       </c>
-      <c r="I192" s="4">
-        <v>1.089</v>
+      <c r="I192" s="9">
+        <v>1089</v>
       </c>
       <c r="J192" s="4">
         <v>143</v>
@@ -8568,8 +8582,8 @@
       <c r="L192" s="4">
         <v>11</v>
       </c>
-      <c r="M192" s="5">
-        <v>2.1320000000000001</v>
+      <c r="M192" s="7">
+        <v>2132</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8595,8 +8609,8 @@
       <c r="H193" s="4">
         <v>388</v>
       </c>
-      <c r="I193" s="4">
-        <v>1.0529999999999999</v>
+      <c r="I193" s="9">
+        <v>1053</v>
       </c>
       <c r="J193" s="4">
         <v>144</v>
@@ -8607,8 +8621,8 @@
       <c r="L193" s="4">
         <v>7</v>
       </c>
-      <c r="M193" s="5">
-        <v>1.72</v>
+      <c r="M193" s="7">
+        <v>1720</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8648,8 +8662,8 @@
       <c r="L194" s="4">
         <v>16</v>
       </c>
-      <c r="M194" s="5">
-        <v>1.8580000000000001</v>
+      <c r="M194" s="7">
+        <v>1858</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8687,8 +8701,8 @@
       <c r="L195" s="4">
         <v>7</v>
       </c>
-      <c r="M195" s="5">
-        <v>1.6060000000000001</v>
+      <c r="M195" s="7">
+        <v>1606</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8728,8 +8742,8 @@
       <c r="L196" s="4">
         <v>13</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.698</v>
+      <c r="M196" s="7">
+        <v>1698</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8767,8 +8781,8 @@
       <c r="L197" s="4">
         <v>8</v>
       </c>
-      <c r="M197" s="5">
-        <v>1.534</v>
+      <c r="M197" s="7">
+        <v>1534</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8808,8 +8822,8 @@
       <c r="L198" s="4">
         <v>27</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.5069999999999999</v>
+      <c r="M198" s="7">
+        <v>1507</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8847,8 +8861,8 @@
       <c r="L199" s="4">
         <v>13</v>
       </c>
-      <c r="M199" s="5">
-        <v>1.145</v>
+      <c r="M199" s="7">
+        <v>1145</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8888,8 +8902,8 @@
       <c r="L200" s="4">
         <v>26</v>
       </c>
-      <c r="M200" s="5">
-        <v>1.1930000000000001</v>
+      <c r="M200" s="7">
+        <v>1193</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8927,8 +8941,8 @@
       <c r="L201" s="4">
         <v>19</v>
       </c>
-      <c r="M201" s="5">
-        <v>1.0900000000000001</v>
+      <c r="M201" s="7">
+        <v>1090</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -9336,29 +9350,29 @@
         <v>12</v>
       </c>
       <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.004</v>
+      <c r="C212" s="7">
+        <v>1004</v>
       </c>
       <c r="D212" s="5">
         <v>527</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.613</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="G212" s="5">
-        <v>2.7109999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>9.5830000000000002</v>
-      </c>
-      <c r="I212" s="5">
-        <v>9.0839999999999996</v>
-      </c>
-      <c r="J212" s="5">
-        <v>1.101</v>
+      <c r="E212" s="7">
+        <v>2613</v>
+      </c>
+      <c r="F212" s="7">
+        <v>1695</v>
+      </c>
+      <c r="G212" s="7">
+        <v>2711</v>
+      </c>
+      <c r="H212" s="7">
+        <v>9583</v>
+      </c>
+      <c r="I212" s="7">
+        <v>9084</v>
+      </c>
+      <c r="J212" s="7">
+        <v>1101</v>
       </c>
       <c r="K212" s="5">
         <v>226</v>
@@ -9366,8 +9380,18 @@
       <c r="L212" s="5">
         <v>411</v>
       </c>
-      <c r="M212" s="5">
-        <v>28.954999999999998</v>
+      <c r="M212" s="7">
+        <v>28955</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
